--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1319537.21407572</v>
+        <v>1317202.10287374</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53.43995086960471</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>122.7140546662723</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -716,7 +716,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>7.035800080891892</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>17.8805622902187</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>118.9397110567444</v>
+        <v>143.9926124282185</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,10 +1066,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>203.7776174440232</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>199.5962211436403</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>324.3985984863151</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>143.8720165063984</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>13.02719212039625</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174159</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.24118421664686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>22.65115569188879</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784708</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>104.8913819999787</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,10 +1819,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>25.7319404949743</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>22.65115569188744</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>3.006892987835017</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2248,13 +2248,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>51.36569740310281</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462248</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>100.3801551430687</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>156.8624097380499</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>3.475606507919279</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520987</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2962,7 +2962,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>132.6315337216692</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>34.69211367164815</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.7518808581219</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890358</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,19 +3895,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>178.9060413124614</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599955</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>527.8767859460538</v>
+        <v>859.685290191162</v>
       </c>
       <c r="C2" t="n">
-        <v>527.8767859460538</v>
+        <v>859.685290191162</v>
       </c>
       <c r="D2" t="n">
-        <v>527.8767859460538</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E2" t="n">
-        <v>527.8767859460538</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>116.8908811564463</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>105.2265349211392</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>105.2265349211392</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2438.385737828163</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2229.640096433988</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>1976.059035698168</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1976.059035698168</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1623.290380428054</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218655</v>
+        <v>1249.824622166974</v>
       </c>
       <c r="Y2" t="n">
-        <v>527.8767859460538</v>
+        <v>859.685290191162</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217532</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.323645957601</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>620.7172435647353</v>
+        <v>602.021613731249</v>
       </c>
       <c r="C4" t="n">
-        <v>620.7172435647353</v>
+        <v>602.021613731249</v>
       </c>
       <c r="D4" t="n">
-        <v>620.7172435647353</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1629.339251305919</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1629.339251305919</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1629.339251305919</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.255484944676</v>
+        <v>1340.220913809757</v>
       </c>
       <c r="V4" t="n">
-        <v>859.5709967387894</v>
+        <v>1340.220913809757</v>
       </c>
       <c r="W4" t="n">
-        <v>841.5098227082655</v>
+        <v>1050.803743772796</v>
       </c>
       <c r="X4" t="n">
-        <v>841.5098227082655</v>
+        <v>822.8141928747791</v>
       </c>
       <c r="Y4" t="n">
-        <v>620.7172435647353</v>
+        <v>602.021613731249</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1321.26637541962</v>
+        <v>1798.734238163262</v>
       </c>
       <c r="C5" t="n">
-        <v>952.303858479208</v>
+        <v>1429.771721222851</v>
       </c>
       <c r="D5" t="n">
-        <v>594.0381598724575</v>
+        <v>1071.5060226161</v>
       </c>
       <c r="E5" t="n">
-        <v>594.0381598724575</v>
+        <v>685.7177700178561</v>
       </c>
       <c r="F5" t="n">
-        <v>587.0926591232541</v>
+        <v>274.7318652282485</v>
       </c>
       <c r="G5" t="n">
-        <v>171.3879088475429</v>
+        <v>263.0675189929415</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="W5" t="n">
-        <v>2084.871465656511</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="X5" t="n">
-        <v>1711.405707395431</v>
+        <v>2188.873570139074</v>
       </c>
       <c r="Y5" t="n">
-        <v>1321.26637541962</v>
+        <v>1798.734238163262</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K6" t="n">
-        <v>299.2648838844851</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>593.9684409159568</v>
+        <v>717.8525085495376</v>
       </c>
       <c r="M6" t="n">
-        <v>957.2304598751767</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1344.515588472122</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O6" t="n">
-        <v>1676.586023648284</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>981.8280128167645</v>
+        <v>514.9860105762134</v>
       </c>
       <c r="C7" t="n">
-        <v>812.8918298888576</v>
+        <v>346.0498276483065</v>
       </c>
       <c r="D7" t="n">
-        <v>662.7751904765219</v>
+        <v>346.0498276483065</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941287</v>
+        <v>198.1367340659134</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4753,22 +4753,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1430.610142858312</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1430.610142858312</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1430.610142858312</v>
+        <v>1434.833775484961</v>
       </c>
       <c r="W7" t="n">
-        <v>1430.610142858312</v>
+        <v>1145.416605448001</v>
       </c>
       <c r="X7" t="n">
-        <v>1202.620591960295</v>
+        <v>917.4270545499833</v>
       </c>
       <c r="Y7" t="n">
-        <v>981.8280128167645</v>
+        <v>696.6344754064531</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1964.273285499504</v>
+        <v>1285.591601078695</v>
       </c>
       <c r="C8" t="n">
-        <v>1595.310768559092</v>
+        <v>916.6290841382836</v>
       </c>
       <c r="D8" t="n">
-        <v>1237.045069952341</v>
+        <v>558.3633855315331</v>
       </c>
       <c r="E8" t="n">
-        <v>851.2568173540972</v>
+        <v>558.3633855315331</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>551.4178847823297</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4832,22 +4832,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W8" t="n">
-        <v>2741.012457539437</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X8" t="n">
-        <v>2741.012457539437</v>
+        <v>2062.330773118629</v>
       </c>
       <c r="Y8" t="n">
-        <v>2350.873125563625</v>
+        <v>1672.191441142817</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1007.446783179745</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>838.5106002518381</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>688.3939608395024</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>540.4808672571093</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>393.5909197591989</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>225.8880831339178</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>79.67089635177561</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4993,19 +4993,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1637.877378051532</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1409.887827153515</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>1189.095248009985</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,55 +5027,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703778</v>
+        <v>980.1499206998668</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969299</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>580.8993044876702</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>580.8993044876702</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>430.7826650753344</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
         <v>1248.15024091081</v>
@@ -5212,37 +5212,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>983.34034846144</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.294644713842</v>
+        <v>762.5477693179099</v>
       </c>
     </row>
     <row r="14">
@@ -5264,58 +5264,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400717</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400717</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5443,7 +5443,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5507,46 +5507,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C19" t="n">
-        <v>558.0193492433381</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5771,22 +5771,22 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,10 +5823,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5841,7 +5841,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>983.3556038098242</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C22" t="n">
-        <v>814.4194208819173</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D22" t="n">
-        <v>664.3027814695815</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E22" t="n">
-        <v>516.3896878871884</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>369.499740389278</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578611</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5935,25 +5935,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2345.568987476151</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.963083580261</v>
+        <v>2125.967522499092</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924459</v>
+        <v>1836.89229584329</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718572</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X22" t="n">
-        <v>1385.796647783594</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y22" t="n">
-        <v>1165.004068640064</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5984,16 +5984,16 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6002,13 +6002,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>1089.917939501689</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>920.9817565737821</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>770.8651171614464</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>622.9520235790533</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>476.0620760811429</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1492.358983475459</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>1271.566404331929</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,40 +6236,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6315,7 +6315,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>869.9745311434671</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>701.0383482155602</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>1051.622995973707</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,19 +6449,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075809</v>
@@ -6479,22 +6479,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098242</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819173</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>664.3027814695815</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>516.3896878871884</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>369.499740389278</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924459</v>
+        <v>2009.464245195835</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718572</v>
+        <v>1754.779756989948</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1465.362586952987</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783594</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640064</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,52 +6686,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.853600740073</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138429</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703128</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6929,13 +6929,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6947,40 +6947,40 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876693</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597624</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1796.747907467618</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1542.063419261731</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1252.64624922477</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>1024.656698326753</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>803.8641191832229</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7731,22 +7731,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>199.7516311504065</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>114.3555089013359</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9556134883069376</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>193.3273467878351</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>113.5907959652904</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>123.7828069546804</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.2658363185655</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>41.54258064659051</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>260.4525338942698</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>144.5956654067404</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>145.6085800303773</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101247</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24136,10 +24136,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>114.158440889166</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>80.64613085857584</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>8.661728554218939</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>145.1398665102931</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24737,7 +24737,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>32.89260457059964</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>251.492360717596</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405059</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25783,19 +25783,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>136.2749052347514</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>936757.8051536796</v>
+        <v>936757.8051536797</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>936757.8051536796</v>
+        <v>936757.8051536798</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>936757.8051536795</v>
+        <v>936757.8051536797</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>936757.8051536796</v>
+        <v>936757.8051536798</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>936757.8051536798</v>
+        <v>936757.8051536797</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>936757.8051536797</v>
+        <v>936757.8051536796</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>936757.8051536797</v>
+        <v>936757.8051536798</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185702</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
+        <v>484287.9598140039</v>
+      </c>
+      <c r="F2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>484287.9598140037</v>
-      </c>
-      <c r="G2" t="n">
-        <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="J2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140038</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403381</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>48293.97000819086</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26418,25 +26418,25 @@
         <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921025</v>
+        <v>136726.2736921026</v>
       </c>
       <c r="D4" t="n">
         <v>88524.23512810784</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
         <v>9337.200356756592</v>
@@ -26445,16 +26445,16 @@
         <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="O4" t="n">
         <v>9337.200356756592</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
         <v>9337.200356756592</v>
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-851790.7677892972</v>
+        <v>-851790.7677892965</v>
       </c>
       <c r="C6" t="n">
-        <v>262961.015786623</v>
+        <v>262961.0157866228</v>
       </c>
       <c r="D6" t="n">
-        <v>103539.7457887309</v>
+        <v>103539.7457887308</v>
       </c>
       <c r="E6" t="n">
-        <v>48415.76782598435</v>
+        <v>48381.02990054851</v>
       </c>
       <c r="F6" t="n">
-        <v>373828.2296333402</v>
+        <v>373793.4917079043</v>
       </c>
       <c r="G6" t="n">
-        <v>373828.22963334</v>
+        <v>373793.4917079044</v>
       </c>
       <c r="H6" t="n">
-        <v>373828.2296333397</v>
+        <v>373793.4917079043</v>
       </c>
       <c r="I6" t="n">
-        <v>373828.22963334</v>
+        <v>373793.4917079042</v>
       </c>
       <c r="J6" t="n">
-        <v>206223.0518233574</v>
+        <v>206188.3138979218</v>
       </c>
       <c r="K6" t="n">
-        <v>373828.2296333398</v>
+        <v>373793.4917079042</v>
       </c>
       <c r="L6" t="n">
-        <v>325534.2596251493</v>
+        <v>325499.5216997133</v>
       </c>
       <c r="M6" t="n">
-        <v>288773.2016978282</v>
+        <v>288738.4637723923</v>
       </c>
       <c r="N6" t="n">
-        <v>373828.22963334</v>
+        <v>373793.4917079041</v>
       </c>
       <c r="O6" t="n">
-        <v>373828.2296333399</v>
+        <v>373793.4917079043</v>
       </c>
       <c r="P6" t="n">
-        <v>373828.22963334</v>
+        <v>373793.4917079042</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26790,7 +26790,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26802,22 +26802,22 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,31 +26975,31 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>12.26996180286575</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.738160732522104</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27540,19 +27540,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>94.52177233868174</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>268.6424360463723</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>182.078841505661</v>
+        <v>157.0259401341869</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27825,16 +27825,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>16.97107855318876</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>52.54142218018765</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>82.47744725539633</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>267.0497091470551</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>83.32522828944184</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,10 +28065,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>-3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29499,7 +29499,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
     </row>
     <row r="29">
@@ -29970,7 +29970,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,34 +31750,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
         <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
         <v>593.8732233669225</v>
@@ -31789,10 +31789,10 @@
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338196</v>
+        <v>545.3845241768634</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31923,31 +31923,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
         <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
         <v>0.1345549672467222</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,25 +32075,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200299</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,7 +32102,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200299</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32561,10 +32561,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32798,13 +32798,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,19 +33026,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,16 +33263,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>400.5469039565762</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,34 +34451,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>590.9487307432805</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>230.8362312321904</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>187.5431097317917</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35030,7 +35030,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>443.0068759113673</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667036</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
         <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>25.7309431539454</v>
+        <v>406.8301443969892</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366966</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366966</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36209,10 +36209,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36446,13 +36446,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,16 +36677,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,13 +36914,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>257.9506595121318</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
